--- a/results/mp/tinybert/corona/confidence/126/stop-words-topk-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-topk-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,24 +40,15 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>kill</t>
+    <t>fraud</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
@@ -67,12 +58,6 @@
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -82,91 +67,97 @@
     <t>best</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>free</t>
+    <t>safe</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>confidence</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>fresh</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>care</t>
+    <t>store</t>
+  </si>
+  <si>
+    <t>grocery</t>
   </si>
   <si>
     <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
 </sst>
 </file>
@@ -524,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -532,10 +523,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
         <v>19</v>
-      </c>
-      <c r="J1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -593,13 +584,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -611,19 +602,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -635,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -643,13 +634,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.92</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -661,19 +652,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K4">
-        <v>0.96875</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -685,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -693,13 +684,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9166666666666666</v>
+        <v>0.6232876712328768</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>182</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>182</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -711,13 +702,13 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L5">
         <v>23</v>
@@ -735,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -743,13 +734,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7727272727272727</v>
+        <v>0.28</v>
       </c>
       <c r="C6">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -761,19 +752,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K6">
-        <v>0.9090909090909091</v>
+        <v>0.875</v>
       </c>
       <c r="L6">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="M6">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -785,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -793,13 +784,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7647058823529411</v>
+        <v>0.2131782945736434</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -811,19 +802,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>406</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K7">
-        <v>0.875</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="L7">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="M7">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -835,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -843,13 +834,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4583333333333333</v>
+        <v>0.1957671957671958</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -861,269 +852,149 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>0.8260869565217391</v>
+      </c>
+      <c r="L8">
+        <v>38</v>
+      </c>
+      <c r="M8">
+        <v>38</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9">
+        <v>0.8170731707317073</v>
+      </c>
+      <c r="L9">
+        <v>67</v>
+      </c>
+      <c r="M9">
+        <v>67</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10">
+        <v>0.8125</v>
+      </c>
+      <c r="L10">
+        <v>104</v>
+      </c>
+      <c r="M10">
+        <v>104</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11">
+        <v>0.8055555555555556</v>
+      </c>
+      <c r="L11">
+        <v>29</v>
+      </c>
+      <c r="M11">
+        <v>29</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12">
+        <v>0.8</v>
+      </c>
+      <c r="L12">
+        <v>96</v>
+      </c>
+      <c r="M12">
+        <v>96</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="J13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K8">
-        <v>0.875</v>
-      </c>
-      <c r="L8">
-        <v>14</v>
-      </c>
-      <c r="M8">
-        <v>14</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.3928571428571428</v>
-      </c>
-      <c r="C9">
-        <v>11</v>
-      </c>
-      <c r="D9">
-        <v>11</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>17</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9">
-        <v>0.8703703703703703</v>
-      </c>
-      <c r="L9">
-        <v>47</v>
-      </c>
-      <c r="M9">
-        <v>47</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.351931330472103</v>
-      </c>
-      <c r="C10">
-        <v>82</v>
-      </c>
-      <c r="D10">
-        <v>82</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>151</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10">
-        <v>0.8627450980392157</v>
-      </c>
-      <c r="L10">
-        <v>44</v>
-      </c>
-      <c r="M10">
-        <v>44</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.2906976744186047</v>
-      </c>
-      <c r="C11">
-        <v>25</v>
-      </c>
-      <c r="D11">
-        <v>25</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>61</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="L11">
-        <v>23</v>
-      </c>
-      <c r="M11">
-        <v>23</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.225</v>
-      </c>
-      <c r="C12">
-        <v>18</v>
-      </c>
-      <c r="D12">
-        <v>18</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>62</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12">
-        <v>0.8035714285714286</v>
-      </c>
-      <c r="L12">
-        <v>45</v>
-      </c>
-      <c r="M12">
-        <v>45</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.1454545454545454</v>
-      </c>
-      <c r="C13">
-        <v>16</v>
-      </c>
-      <c r="D13">
-        <v>16</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>94</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="K13">
-        <v>0.7843137254901961</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L13">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="M13">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1135,21 +1006,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K14">
-        <v>0.7758620689655172</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="L14">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="M14">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1161,21 +1032,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K15">
-        <v>0.7692307692307693</v>
+        <v>0.7075471698113207</v>
       </c>
       <c r="L15">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="M15">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1187,21 +1058,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K16">
-        <v>0.76</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L16">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M16">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1213,21 +1084,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.675</v>
       </c>
       <c r="L17">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="M17">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1239,21 +1110,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K18">
-        <v>0.7435897435897436</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L18">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M18">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1265,21 +1136,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K19">
-        <v>0.7241379310344828</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L19">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="M19">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1291,21 +1162,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K20">
-        <v>0.7058823529411765</v>
+        <v>0.64</v>
       </c>
       <c r="L20">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="M20">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1317,21 +1188,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K21">
-        <v>0.684931506849315</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L21">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="M21">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1343,21 +1214,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K22">
-        <v>0.6666666666666666</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L22">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M22">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1369,21 +1240,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K23">
-        <v>0.6538461538461539</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="L23">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="M23">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1395,21 +1266,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K24">
-        <v>0.64</v>
+        <v>0.5535248041775457</v>
       </c>
       <c r="L24">
-        <v>16</v>
+        <v>212</v>
       </c>
       <c r="M24">
-        <v>16</v>
+        <v>212</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1421,21 +1292,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K25">
-        <v>0.631578947368421</v>
+        <v>0.4764705882352941</v>
       </c>
       <c r="L25">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="M25">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1447,21 +1318,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>7</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K26">
-        <v>0.568075117370892</v>
+        <v>0.4606741573033708</v>
       </c>
       <c r="L26">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="M26">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1473,21 +1344,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>92</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>0.5357142857142857</v>
+        <v>0.4487179487179487</v>
       </c>
       <c r="L27">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="M27">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1499,21 +1370,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>13</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>0.5271317829457365</v>
+        <v>0.4440677966101695</v>
       </c>
       <c r="L28">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="M28">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1525,21 +1396,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>61</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>0.5</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="L29">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="M29">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1551,21 +1422,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>72</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>0.5</v>
+        <v>0.3389121338912134</v>
       </c>
       <c r="L30">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="M30">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1577,21 +1448,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>15</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>0.4456521739130435</v>
+        <v>0.3384615384615385</v>
       </c>
       <c r="L31">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="M31">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1603,21 +1474,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K32">
-        <v>0.4</v>
+        <v>0.02796420581655481</v>
       </c>
       <c r="L32">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="M32">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1629,33 +1500,85 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>21</v>
+        <v>869</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K33">
-        <v>0.01070472792149866</v>
+        <v>0.02108768035516093</v>
       </c>
       <c r="L33">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M33">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N33">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>1109</v>
+        <v>882</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K34">
+        <v>0.01074766355140187</v>
+      </c>
+      <c r="L34">
+        <v>23</v>
+      </c>
+      <c r="M34">
+        <v>26</v>
+      </c>
+      <c r="N34">
+        <v>0.88</v>
+      </c>
+      <c r="O34">
+        <v>0.12</v>
+      </c>
+      <c r="P34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K35">
+        <v>0.007724493080141615</v>
+      </c>
+      <c r="L35">
+        <v>24</v>
+      </c>
+      <c r="M35">
+        <v>24</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>3083</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/126/stop-words-topk-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-topk-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,6 +43,9 @@
     <t>crude</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
@@ -58,6 +61,9 @@
     <t>sc</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -67,91 +73,88 @@
     <t>best</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>free</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>care</t>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>store</t>
-  </si>
-  <si>
-    <t>grocery</t>
   </si>
   <si>
     <t>19</t>
@@ -515,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -523,10 +526,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -584,13 +587,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8529411764705882</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -602,10 +605,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K3">
         <v>0.9393939393939394</v>
@@ -634,13 +637,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6944444444444444</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -652,19 +655,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -676,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -684,13 +687,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6232876712328768</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C5">
-        <v>182</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>182</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -702,19 +705,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K5">
-        <v>0.8846153846153846</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -726,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -734,13 +737,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.28</v>
+        <v>0.565068493150685</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>165</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>165</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -752,19 +755,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>54</v>
+        <v>127</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -776,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -784,13 +787,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.2131782945736434</v>
+        <v>0.3066666666666666</v>
       </c>
       <c r="C7">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -802,19 +805,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>406</v>
+        <v>52</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K7">
-        <v>0.8448275862068966</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -826,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -834,13 +837,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.1957671957671958</v>
+        <v>0.2170542635658915</v>
       </c>
       <c r="C8">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="D8">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -852,19 +855,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>152</v>
+        <v>404</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K8">
-        <v>0.8260869565217391</v>
+        <v>0.8203125</v>
       </c>
       <c r="L8">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="M8">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -876,21 +879,45 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:17">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0.1534391534391534</v>
+      </c>
+      <c r="C9">
+        <v>29</v>
+      </c>
+      <c r="D9">
+        <v>29</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>160</v>
+      </c>
       <c r="J9" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K9">
-        <v>0.8170731707317073</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -902,21 +929,45 @@
         <v>0</v>
       </c>
       <c r="Q9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="B10">
+        <v>0.07539682539682539</v>
+      </c>
+      <c r="C10">
+        <v>19</v>
+      </c>
+      <c r="D10">
+        <v>19</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>233</v>
+      </c>
       <c r="J10" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K10">
-        <v>0.8125</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L10">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="M10">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -928,21 +979,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K11">
-        <v>0.8055555555555556</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="L11">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="M11">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -954,21 +1005,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K12">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="L12">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="M12">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -980,21 +1031,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K13">
-        <v>0.7777777777777778</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L13">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="M13">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1006,21 +1057,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="L14">
         <v>26</v>
       </c>
-      <c r="K14">
-        <v>0.7535211267605634</v>
-      </c>
-      <c r="L14">
-        <v>107</v>
-      </c>
       <c r="M14">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1032,12 +1083,12 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K15">
         <v>0.7075471698113207</v>
@@ -1063,16 +1114,16 @@
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K16">
-        <v>0.6944444444444444</v>
+        <v>0.7</v>
       </c>
       <c r="L16">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="M16">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1084,21 +1135,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K17">
-        <v>0.675</v>
+        <v>0.6690140845070423</v>
       </c>
       <c r="L17">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="M17">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1110,21 +1161,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K18">
-        <v>0.6666666666666666</v>
+        <v>0.64</v>
       </c>
       <c r="L18">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M18">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1136,21 +1187,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K19">
-        <v>0.6595744680851063</v>
+        <v>0.6276595744680851</v>
       </c>
       <c r="L19">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="M19">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1162,21 +1213,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K20">
-        <v>0.64</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L20">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M20">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1188,21 +1239,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K21">
-        <v>0.6382978723404256</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L21">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="M21">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1214,12 +1265,12 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K22">
         <v>0.6041666666666666</v>
@@ -1245,16 +1296,16 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K23">
-        <v>0.6031746031746031</v>
+        <v>0.5300261096605744</v>
       </c>
       <c r="L23">
-        <v>38</v>
+        <v>203</v>
       </c>
       <c r="M23">
-        <v>38</v>
+        <v>203</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1266,21 +1317,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>25</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K24">
-        <v>0.5535248041775457</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="L24">
-        <v>212</v>
+        <v>43</v>
       </c>
       <c r="M24">
-        <v>212</v>
+        <v>43</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1292,21 +1343,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>171</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K25">
-        <v>0.4764705882352941</v>
+        <v>0.4779661016949153</v>
       </c>
       <c r="L25">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="M25">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1318,21 +1369,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>178</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K26">
-        <v>0.4606741573033708</v>
+        <v>0.475</v>
       </c>
       <c r="L26">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="M26">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1344,21 +1395,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K27">
-        <v>0.4487179487179487</v>
+        <v>0.4647058823529412</v>
       </c>
       <c r="L27">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c r="M27">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1370,21 +1421,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>43</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K28">
-        <v>0.4440677966101695</v>
+        <v>0.4246575342465753</v>
       </c>
       <c r="L28">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="M28">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1396,21 +1447,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>164</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>0.3972602739726027</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="L29">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="M29">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1422,21 +1473,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K30">
-        <v>0.3389121338912134</v>
+        <v>0.3723849372384937</v>
       </c>
       <c r="L30">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="M30">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1448,21 +1499,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K31">
-        <v>0.3384615384615385</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="L31">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M31">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1474,21 +1525,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K32">
-        <v>0.02796420581655481</v>
+        <v>0.03467561521252797</v>
       </c>
       <c r="L32">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M32">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1500,85 +1551,59 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>869</v>
+        <v>863</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K33">
-        <v>0.02108768035516093</v>
+        <v>0.009350163627863487</v>
       </c>
       <c r="L33">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M33">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>882</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K34">
-        <v>0.01074766355140187</v>
+        <v>0.008695652173913044</v>
       </c>
       <c r="L34">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M34">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N34">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="O34">
-        <v>0.12</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>2117</v>
-      </c>
-    </row>
-    <row r="35" spans="10:17">
-      <c r="J35" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K35">
-        <v>0.007724493080141615</v>
-      </c>
-      <c r="L35">
-        <v>24</v>
-      </c>
-      <c r="M35">
-        <v>24</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>3083</v>
+        <v>3078</v>
       </c>
     </row>
   </sheetData>
